--- a/TU space system yield.xlsx
+++ b/TU space system yield.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,23 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\UF-DecisionMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACAF3EE8-136B-40D5-B8AC-7C4373C63776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB37D33F-B858-45C5-8B85-5BA184B229EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="TU space system yield" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TU space system yield'!$A$1:$G$127</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="147">
   <si>
     <t>size</t>
   </si>
@@ -462,12 +477,15 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>daily</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -945,10 +963,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1993,7 +2012,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="gozde anil" refreshedDate="44687.700834143521" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="124">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="gozde anil" refreshedDate="44687.700834143521" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="124" xr:uid="{00000000-000A-0000-FFFF-FFFF08000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:G125" sheet="TU space system yield"/>
   </cacheSource>
@@ -3030,7 +3049,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3137,7 +3156,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="K130:L136" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3539,7 +3558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3615,11 +3634,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="L138" sqref="L138"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3644,7 +3664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3667,7 +3687,7 @@
         <v>84169.8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -3690,7 +3710,7 @@
         <v>64324.800000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -3713,7 +3733,7 @@
         <v>22334.400000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3736,7 +3756,7 @@
         <v>13176</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3759,7 +3779,7 @@
         <v>12744</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -3782,7 +3802,7 @@
         <v>11977.2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -3805,7 +3825,7 @@
         <v>10246.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3828,7 +3848,7 @@
         <v>9217.7999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -3851,7 +3871,7 @@
         <v>8966.7000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -3874,7 +3894,7 @@
         <v>8194.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -3897,7 +3917,7 @@
         <v>7308.9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -3920,7 +3940,7 @@
         <v>5243.4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -3943,7 +3963,7 @@
         <v>5186.7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -3966,7 +3986,7 @@
         <v>4495.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -3989,7 +4009,7 @@
         <v>4476.6000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -4012,7 +4032,7 @@
         <v>4311.8999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -4035,7 +4055,7 @@
         <v>3477.6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -4058,7 +4078,7 @@
         <v>3442.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -4081,7 +4101,7 @@
         <v>3113.1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -4104,7 +4124,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -4127,7 +4147,7 @@
         <v>2945.7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -4150,7 +4170,7 @@
         <v>2386.8000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -4173,7 +4193,7 @@
         <v>2292.3000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -4196,7 +4216,7 @@
         <v>1984.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -4219,7 +4239,7 @@
         <v>1873.8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -4242,7 +4262,7 @@
         <v>1671.3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -4265,7 +4285,7 @@
         <v>1628.1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -4288,7 +4308,7 @@
         <v>1528.2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -4311,7 +4331,7 @@
         <v>1509.3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -4334,7 +4354,7 @@
         <v>1352.7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -4357,7 +4377,7 @@
         <v>861.3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -4380,7 +4400,7 @@
         <v>828.9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -4403,7 +4423,7 @@
         <v>596.70000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -4426,7 +4446,7 @@
         <v>396.9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -4449,7 +4469,7 @@
         <v>369.9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -4472,7 +4492,7 @@
         <v>288.89999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>135</v>
       </c>
@@ -4495,7 +4515,7 @@
         <v>197.1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -4518,7 +4538,7 @@
         <v>151.19999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>137</v>
       </c>
@@ -4541,7 +4561,7 @@
         <v>145.80000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>140</v>
       </c>
@@ -4564,7 +4584,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -4581,7 +4601,7 @@
         <v>120915</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>104</v>
       </c>
@@ -4598,7 +4618,7 @@
         <v>5595</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -4615,7 +4635,7 @@
         <v>108875</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -4632,7 +4652,7 @@
         <v>280625</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4649,7 +4669,7 @@
         <v>317625</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -4666,7 +4686,7 @@
         <v>196500</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -4683,7 +4703,7 @@
         <v>167500</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -4700,7 +4720,7 @@
         <v>132500</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -4717,7 +4737,7 @@
         <v>110750</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -4734,7 +4754,7 @@
         <v>68125</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -4768,7 +4788,7 @@
         <v>965533.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -4804,10 +4824,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B56">
-        <v>2440</v>
+        <v>3912</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -4816,15 +4836,15 @@
         <v>8</v>
       </c>
       <c r="F56">
-        <v>243756</v>
+        <v>390808.8</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B57">
-        <v>2167</v>
+        <v>2570</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -4833,15 +4853,15 @@
         <v>8</v>
       </c>
       <c r="F57">
-        <v>216483.3</v>
+        <v>256743</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B58">
-        <v>2111</v>
+        <v>2440</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -4850,15 +4870,15 @@
         <v>8</v>
       </c>
       <c r="F58">
-        <v>210888.9</v>
+        <v>243756</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B59">
-        <v>1354</v>
+        <v>2167</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -4867,15 +4887,15 @@
         <v>8</v>
       </c>
       <c r="F59">
-        <v>135264.6</v>
+        <v>216483.3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B60">
-        <v>1233</v>
+        <v>2144</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -4884,15 +4904,15 @@
         <v>8</v>
       </c>
       <c r="F60">
-        <v>123176.7</v>
+        <v>214185.60000000001</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B61">
-        <v>741</v>
+        <v>2139</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -4901,15 +4921,15 @@
         <v>8</v>
       </c>
       <c r="F61">
-        <v>74025.899999999994</v>
+        <v>213686.1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B62">
-        <v>137</v>
+        <v>2111</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -4918,15 +4938,15 @@
         <v>8</v>
       </c>
       <c r="F62">
-        <v>13686.3</v>
+        <v>210888.9</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B63">
-        <v>103</v>
+        <v>1578</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -4935,15 +4955,15 @@
         <v>8</v>
       </c>
       <c r="F63">
-        <v>10289.700000000001</v>
+        <v>157642.20000000001</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B64">
-        <v>3912</v>
+        <v>1501</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -4952,15 +4972,15 @@
         <v>8</v>
       </c>
       <c r="F64">
-        <v>390808.8</v>
+        <v>149949.9</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B65">
-        <v>2570</v>
+        <v>1501</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -4969,15 +4989,15 @@
         <v>8</v>
       </c>
       <c r="F65">
-        <v>256743</v>
+        <v>149949.9</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B66">
-        <v>2144</v>
+        <v>1354</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -4986,15 +5006,15 @@
         <v>8</v>
       </c>
       <c r="F66">
-        <v>214185.60000000001</v>
+        <v>135264.6</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B67">
-        <v>2139</v>
+        <v>1233</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -5003,15 +5023,15 @@
         <v>8</v>
       </c>
       <c r="F67">
-        <v>213686.1</v>
+        <v>123176.7</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B68">
-        <v>1578</v>
+        <v>1148</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -5020,15 +5040,15 @@
         <v>8</v>
       </c>
       <c r="F68">
-        <v>157642.20000000001</v>
+        <v>114685.2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B69">
-        <v>1501</v>
+        <v>1055</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -5037,15 +5057,15 @@
         <v>8</v>
       </c>
       <c r="F69">
-        <v>149949.9</v>
+        <v>105394.5</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B70">
-        <v>1501</v>
+        <v>1044</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -5054,15 +5074,15 @@
         <v>8</v>
       </c>
       <c r="F70">
-        <v>149949.9</v>
+        <v>104295.6</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>1148</v>
+        <v>950</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -5071,15 +5091,15 @@
         <v>8</v>
       </c>
       <c r="F71">
-        <v>114685.2</v>
+        <v>94905</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>1055</v>
+        <v>886</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -5088,15 +5108,15 @@
         <v>8</v>
       </c>
       <c r="F72">
-        <v>105394.5</v>
+        <v>88511.4</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>1044</v>
+        <v>886</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -5105,15 +5125,15 @@
         <v>8</v>
       </c>
       <c r="F73">
-        <v>104295.6</v>
+        <v>88511.4</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>950</v>
+        <v>886</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
@@ -5122,12 +5142,12 @@
         <v>8</v>
       </c>
       <c r="F74">
-        <v>94905</v>
+        <v>88511.4</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>886</v>
@@ -5144,7 +5164,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>886</v>
@@ -5161,7 +5181,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>886</v>
@@ -5178,7 +5198,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>886</v>
@@ -5195,7 +5215,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>886</v>
@@ -5211,11 +5231,11 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>76</v>
+      <c r="A80" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>886</v>
+        <v>817</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -5224,15 +5244,15 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>88511.4</v>
+        <v>81618.3</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>886</v>
+        <v>816</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -5241,15 +5261,15 @@
         <v>8</v>
       </c>
       <c r="F81">
-        <v>88511.4</v>
+        <v>81518.399999999994</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>886</v>
+        <v>782</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -5258,15 +5278,15 @@
         <v>8</v>
       </c>
       <c r="F82">
-        <v>88511.4</v>
+        <v>78121.8</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B83">
-        <v>817</v>
+        <v>741</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -5275,15 +5295,15 @@
         <v>8</v>
       </c>
       <c r="F83">
-        <v>81618.3</v>
+        <v>74025.899999999994</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>816</v>
+        <v>734</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
@@ -5292,15 +5312,15 @@
         <v>8</v>
       </c>
       <c r="F84">
-        <v>81518.399999999994</v>
+        <v>73326.600000000006</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>782</v>
+        <v>731</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -5309,15 +5329,15 @@
         <v>8</v>
       </c>
       <c r="F85">
-        <v>78121.8</v>
+        <v>73026.899999999994</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B86">
-        <v>734</v>
+        <v>641</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
@@ -5326,15 +5346,15 @@
         <v>8</v>
       </c>
       <c r="F86">
-        <v>73326.600000000006</v>
+        <v>64035.9</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B87">
-        <v>731</v>
+        <v>636</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -5343,15 +5363,15 @@
         <v>8</v>
       </c>
       <c r="F87">
-        <v>73026.899999999994</v>
+        <v>63536.4</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -5360,15 +5380,15 @@
         <v>8</v>
       </c>
       <c r="F88">
-        <v>64035.9</v>
+        <v>54845.1</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>636</v>
+        <v>513</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -5377,15 +5397,15 @@
         <v>8</v>
       </c>
       <c r="F89">
-        <v>63536.4</v>
+        <v>51248.7</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>549</v>
+        <v>506</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
@@ -5394,15 +5414,15 @@
         <v>8</v>
       </c>
       <c r="F90">
-        <v>54845.1</v>
+        <v>50549.4</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>513</v>
+        <v>475</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
@@ -5411,15 +5431,15 @@
         <v>8</v>
       </c>
       <c r="F91">
-        <v>51248.7</v>
+        <v>47452.5</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
@@ -5428,15 +5448,15 @@
         <v>8</v>
       </c>
       <c r="F92">
-        <v>50549.4</v>
+        <v>47452.5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
@@ -5445,15 +5465,15 @@
         <v>8</v>
       </c>
       <c r="F93">
-        <v>47452.5</v>
+        <v>44255.7</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>475</v>
+        <v>402</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
@@ -5462,15 +5482,15 @@
         <v>8</v>
       </c>
       <c r="F94">
-        <v>47452.5</v>
+        <v>40159.800000000003</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>443</v>
+        <v>367</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
@@ -5479,15 +5499,15 @@
         <v>8</v>
       </c>
       <c r="F95">
-        <v>44255.7</v>
+        <v>36663.300000000003</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
@@ -5496,15 +5516,15 @@
         <v>8</v>
       </c>
       <c r="F96">
-        <v>40159.800000000003</v>
+        <v>35964</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
@@ -5513,15 +5533,15 @@
         <v>8</v>
       </c>
       <c r="F97">
-        <v>36663.300000000003</v>
+        <v>32867.1</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B98">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -5530,15 +5550,15 @@
         <v>8</v>
       </c>
       <c r="F98">
-        <v>35964</v>
+        <v>31468.5</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B99">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
@@ -5547,15 +5567,15 @@
         <v>8</v>
       </c>
       <c r="F99">
-        <v>32867.1</v>
+        <v>30569.4</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B100">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -5564,15 +5584,15 @@
         <v>8</v>
       </c>
       <c r="F100">
-        <v>31468.5</v>
+        <v>26473.5</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B101">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
@@ -5581,15 +5601,15 @@
         <v>8</v>
       </c>
       <c r="F101">
-        <v>30569.4</v>
+        <v>23676.3</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B102">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
@@ -5598,15 +5618,15 @@
         <v>8</v>
       </c>
       <c r="F102">
-        <v>26473.5</v>
+        <v>21578.400000000001</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B103">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
@@ -5615,15 +5635,15 @@
         <v>8</v>
       </c>
       <c r="F103">
-        <v>23676.3</v>
+        <v>21578.400000000001</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B104">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
@@ -5632,15 +5652,15 @@
         <v>8</v>
       </c>
       <c r="F104">
-        <v>21578.400000000001</v>
+        <v>19880.099999999999</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B105">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
@@ -5649,15 +5669,15 @@
         <v>8</v>
       </c>
       <c r="F105">
-        <v>21578.400000000001</v>
+        <v>19180.8</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B106">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
@@ -5666,15 +5686,15 @@
         <v>8</v>
       </c>
       <c r="F106">
-        <v>19880.099999999999</v>
+        <v>17682.3</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B107">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
@@ -5683,15 +5703,15 @@
         <v>8</v>
       </c>
       <c r="F107">
-        <v>19180.8</v>
+        <v>16583.400000000001</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B108">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
@@ -5700,15 +5720,15 @@
         <v>8</v>
       </c>
       <c r="F108">
-        <v>17682.3</v>
+        <v>15784.2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B109">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -5717,15 +5737,15 @@
         <v>8</v>
       </c>
       <c r="F109">
-        <v>16583.400000000001</v>
+        <v>14885.1</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="B110">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -5734,15 +5754,15 @@
         <v>8</v>
       </c>
       <c r="F110">
-        <v>15784.2</v>
+        <v>13686.3</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B111">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -5751,15 +5771,15 @@
         <v>8</v>
       </c>
       <c r="F111">
-        <v>14885.1</v>
+        <v>13286.7</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B112">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
@@ -5768,15 +5788,15 @@
         <v>8</v>
       </c>
       <c r="F112">
-        <v>13286.7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10489.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="B113">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -5785,10 +5805,10 @@
         <v>8</v>
       </c>
       <c r="F113">
-        <v>10489.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10289.700000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>134</v>
       </c>
@@ -5804,8 +5824,17 @@
       <c r="F114">
         <v>8291.7000000000007</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" t="s">
+        <v>142</v>
+      </c>
+      <c r="H114" t="s">
+        <v>4</v>
+      </c>
+      <c r="I114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>139</v>
       </c>
@@ -5821,8 +5850,28 @@
       <c r="F115">
         <v>2197.8000000000002</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115">
+        <f>SUM(B53:B115)-B80</f>
+        <v>72144</v>
+      </c>
+      <c r="H115">
+        <f>SUM(F53:F115)-F80</f>
+        <v>7101823.1000000043</v>
+      </c>
+      <c r="I115">
+        <f>H115/365</f>
+        <v>19457.049589041108</v>
+      </c>
+      <c r="J115">
+        <f>I115/0.25</f>
+        <v>77828.19835616443</v>
+      </c>
+      <c r="K115">
+        <f>J115/101000*100</f>
+        <v>77.05762213481627</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>32</v>
       </c>
@@ -5839,7 +5888,7 @@
         <v>31357.93</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>48</v>
       </c>
@@ -5856,7 +5905,7 @@
         <v>10192.91</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>68</v>
       </c>
@@ -5873,7 +5922,7 @@
         <v>5035.58</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>93</v>
       </c>
@@ -5890,7 +5939,7 @@
         <v>2727.2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -5907,7 +5956,7 @@
         <v>983.74</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -5924,7 +5973,7 @@
         <v>930.17</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -5941,7 +5990,7 @@
         <v>900.95</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -5958,7 +6007,7 @@
         <v>861.99</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>133</v>
       </c>
@@ -5975,7 +6024,7 @@
         <v>409.08</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -5992,7 +6041,7 @@
         <v>228.89</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>142</v>
       </c>
@@ -6000,7 +6049,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>145</v>
       </c>
@@ -6039,6 +6088,10 @@
         <f>SUM(B53:B115,B2:B41)</f>
         <v>188707</v>
       </c>
+      <c r="E130">
+        <f>B130/B135*100</f>
+        <v>83.064516129032256</v>
+      </c>
       <c r="K130" s="1" t="s">
         <v>1</v>
       </c>
@@ -6061,6 +6114,10 @@
         <f>SUM(B2:B41)</f>
         <v>115746</v>
       </c>
+      <c r="E131">
+        <f>B131/B135*100</f>
+        <v>32.258064516129032</v>
+      </c>
       <c r="K131" t="s">
         <v>33</v>
       </c>
@@ -6083,6 +6140,10 @@
         <f>SUM(B116:B125)</f>
         <v>11012</v>
       </c>
+      <c r="E132">
+        <f t="shared" ref="E132:E134" si="1">B132/B136*100</f>
+        <v>8.064516129032258</v>
+      </c>
       <c r="K132" t="s">
         <v>12</v>
       </c>
@@ -6105,6 +6166,10 @@
         <f>SUM(B44:B52)</f>
         <v>11333</v>
       </c>
+      <c r="E133">
+        <f t="shared" si="1"/>
+        <v>7.2580645161290329</v>
+      </c>
       <c r="K133" t="s">
         <v>21</v>
       </c>
@@ -6126,6 +6191,10 @@
       <c r="D134">
         <f>SUM(B42:B43)</f>
         <v>8434</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="1"/>
+        <v>1.6129032258064515</v>
       </c>
       <c r="K134" t="s">
         <v>7</v>
@@ -6147,6 +6216,9 @@
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>124</v>
+      </c>
       <c r="K136" t="s">
         <v>10</v>
       </c>
@@ -6155,15 +6227,34 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>124</v>
+      </c>
       <c r="L137">
         <f>SUM(L131:L136)</f>
         <v>124</v>
       </c>
     </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G127" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="UF4"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:G115">
+      <sortCondition descending="1" ref="B1:B127"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G125">
     <sortCondition ref="E24:E125"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>